--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_33_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_33_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="184">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -79,502 +79,496 @@
     <t>0.1+/-0.3</t>
   </si>
   <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.884+/-0.002</t>
+  </si>
+  <si>
+    <t>0.811+/-0.0</t>
+  </si>
+  <si>
+    <t>0.718</t>
+  </si>
+  <si>
+    <t>0.868+/-0.004</t>
+  </si>
+  <si>
+    <t>0.802+/-0.015</t>
+  </si>
+  <si>
+    <t>0.341</t>
+  </si>
+  <si>
+    <t>0.905+/-0.003</t>
+  </si>
+  <si>
+    <t>0.828+/-0.011</t>
+  </si>
+  <si>
+    <t>0.429</t>
+  </si>
+  <si>
+    <t>10.097+/-0.828</t>
+  </si>
+  <si>
+    <t>0.768+/-0.003</t>
+  </si>
+  <si>
+    <t>0.755+/-0.0</t>
+  </si>
+  <si>
+    <t>0.716</t>
+  </si>
+  <si>
+    <t>0.778+/-0.005</t>
+  </si>
+  <si>
+    <t>0.765+/-0.018</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.749+/-0.006</t>
+  </si>
+  <si>
+    <t>0.737+/-0.028</t>
+  </si>
+  <si>
+    <t>0.432</t>
+  </si>
+  <si>
+    <t>1.926+/-0.024</t>
+  </si>
+  <si>
+    <t>0.87+/-0.002</t>
+  </si>
+  <si>
+    <t>0.845+/-0.0</t>
+  </si>
+  <si>
+    <t>0.768</t>
+  </si>
+  <si>
+    <t>0.913+/-0.003</t>
+  </si>
+  <si>
+    <t>0.887+/-0.015</t>
+  </si>
+  <si>
+    <t>0.383</t>
+  </si>
+  <si>
+    <t>0.819+/-0.003</t>
+  </si>
+  <si>
+    <t>0.792+/-0.02</t>
+  </si>
+  <si>
+    <t>0.248</t>
+  </si>
+  <si>
+    <t>7.879+/-0.056</t>
+  </si>
+  <si>
+    <t>0.716+/-0.004</t>
+  </si>
+  <si>
+    <t>0.69+/-0.0</t>
+  </si>
+  <si>
+    <t>0.662</t>
+  </si>
+  <si>
+    <t>0.726+/-0.005</t>
+  </si>
+  <si>
+    <t>0.698+/-0.012</t>
+  </si>
+  <si>
+    <t>0.299</t>
+  </si>
+  <si>
+    <t>0.695+/-0.012</t>
+  </si>
+  <si>
+    <t>0.671+/-0.027</t>
+  </si>
+  <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>0.79+/-0.012</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.901+/-0.002</t>
+  </si>
+  <si>
+    <t>0.846+/-0.0</t>
+  </si>
+  <si>
+    <t>0.761</t>
+  </si>
+  <si>
+    <t>0.884+/-0.004</t>
+  </si>
+  <si>
+    <t>0.831+/-0.009</t>
+  </si>
+  <si>
+    <t>0.294</t>
+  </si>
+  <si>
+    <t>0.924+/-0.002</t>
+  </si>
+  <si>
+    <t>0.868+/-0.012</t>
+  </si>
+  <si>
+    <t>0.423</t>
+  </si>
+  <si>
+    <t>11.472+/-0.198</t>
+  </si>
+  <si>
+    <t>0.796+/-0.002</t>
+  </si>
+  <si>
+    <t>0.789+/-0.0</t>
+  </si>
+  <si>
+    <t>0.748</t>
+  </si>
+  <si>
+    <t>0.806+/-0.004</t>
+  </si>
+  <si>
+    <t>0.798+/-0.012</t>
+  </si>
+  <si>
+    <t>0.279</t>
+  </si>
+  <si>
+    <t>0.781+/-0.006</t>
+  </si>
+  <si>
+    <t>0.774+/-0.019</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>2.337+/-0.027</t>
+  </si>
+  <si>
+    <t>0.897+/-0.001</t>
+  </si>
+  <si>
+    <t>0.88+/-0.0</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.933+/-0.002</t>
+  </si>
+  <si>
+    <t>0.915+/-0.01</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.857+/-0.002</t>
+  </si>
+  <si>
+    <t>0.837+/-0.013</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>9.384+/-0.045</t>
+  </si>
+  <si>
+    <t>0.741+/-0.003</t>
+  </si>
+  <si>
+    <t>0.718+/-0.0</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.76+/-0.003</t>
+  </si>
+  <si>
+    <t>0.735+/-0.014</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>0.706+/-0.01</t>
+  </si>
+  <si>
+    <t>0.681+/-0.024</t>
+  </si>
+  <si>
+    <t>0.487</t>
+  </si>
+  <si>
+    <t>0.971+/-0.018</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
     <t>0.0+/-0.0</t>
   </si>
   <si>
-    <t>0.875+/-0.002</t>
-  </si>
-  <si>
-    <t>0.806+/-0.0</t>
-  </si>
-  <si>
-    <t>0.707</t>
-  </si>
-  <si>
-    <t>0.861+/-0.002</t>
-  </si>
-  <si>
-    <t>0.795+/-0.014</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.895+/-0.002</t>
-  </si>
-  <si>
-    <t>0.825+/-0.012</t>
-  </si>
-  <si>
-    <t>0.419</t>
-  </si>
-  <si>
-    <t>8.254+/-0.231</t>
-  </si>
-  <si>
-    <t>0.769+/-0.003</t>
-  </si>
-  <si>
-    <t>0.757+/-0.0</t>
+    <t>0.867+/-0.003</t>
+  </si>
+  <si>
+    <t>0.749+/-0.0</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>0.874+/-0.005</t>
+  </si>
+  <si>
+    <t>0.755+/-0.016</t>
+  </si>
+  <si>
+    <t>0.406</t>
+  </si>
+  <si>
+    <t>0.858+/-0.004</t>
+  </si>
+  <si>
+    <t>0.736+/-0.014</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>8.636+/-0.302</t>
+  </si>
+  <si>
+    <t>0.686+/-0.003</t>
+  </si>
+  <si>
+    <t>0.675+/-0.0</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.699+/-0.003</t>
+  </si>
+  <si>
+    <t>0.686+/-0.014</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.653+/-0.005</t>
+  </si>
+  <si>
+    <t>0.647+/-0.023</t>
+  </si>
+  <si>
+    <t>1.921+/-0.027</t>
+  </si>
+  <si>
+    <t>0.809+/-0.001</t>
+  </si>
+  <si>
+    <t>0.769+/-0.0</t>
+  </si>
+  <si>
+    <t>0.881+/-0.005</t>
+  </si>
+  <si>
+    <t>0.837+/-0.023</t>
+  </si>
+  <si>
+    <t>0.425</t>
+  </si>
+  <si>
+    <t>0.713+/-0.004</t>
+  </si>
+  <si>
+    <t>0.67+/-0.02</t>
+  </si>
+  <si>
+    <t>0.264</t>
+  </si>
+  <si>
+    <t>6.765+/-0.614</t>
+  </si>
+  <si>
+    <t>0.687+/-0.003</t>
+  </si>
+  <si>
+    <t>0.638+/-0.0</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.673+/-0.004</t>
+  </si>
+  <si>
+    <t>0.627+/-0.015</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.728+/-0.004</t>
+  </si>
+  <si>
+    <t>0.681+/-0.021</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.734+/-0.052</t>
   </si>
   <si>
     <t>0.692</t>
   </si>
   <si>
-    <t>0.781+/-0.004</t>
-  </si>
-  <si>
-    <t>0.769+/-0.02</t>
-  </si>
-  <si>
-    <t>0.293</t>
-  </si>
-  <si>
-    <t>0.748+/-0.004</t>
-  </si>
-  <si>
-    <t>0.736+/-0.018</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>1.789+/-0.025</t>
-  </si>
-  <si>
-    <t>0.868+/-0.003</t>
-  </si>
-  <si>
-    <t>0.846+/-0.0</t>
-  </si>
-  <si>
-    <t>0.767</t>
-  </si>
-  <si>
-    <t>0.91+/-0.004</t>
-  </si>
-  <si>
-    <t>0.886+/-0.015</t>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.853+/-0.004</t>
+  </si>
+  <si>
+    <t>0.717+/-0.0</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>0.846+/-0.006</t>
+  </si>
+  <si>
+    <t>0.722+/-0.01</t>
+  </si>
+  <si>
+    <t>0.389</t>
+  </si>
+  <si>
+    <t>0.862+/-0.003</t>
+  </si>
+  <si>
+    <t>0.703+/-0.017</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>8.139+/-0.159</t>
+  </si>
+  <si>
+    <t>0.675+/-0.003</t>
+  </si>
+  <si>
+    <t>0.66+/-0.0</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.689+/-0.004</t>
+  </si>
+  <si>
+    <t>0.673+/-0.017</t>
   </si>
   <si>
     <t>0.384</t>
   </si>
   <si>
-    <t>0.818+/-0.003</t>
-  </si>
-  <si>
-    <t>0.793+/-0.011</t>
-  </si>
-  <si>
-    <t>0.261</t>
-  </si>
-  <si>
-    <t>7.384+/-0.063</t>
-  </si>
-  <si>
-    <t>0.714+/-0.002</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.646</t>
-  </si>
-  <si>
-    <t>0.718+/-0.003</t>
-  </si>
-  <si>
-    <t>0.694+/-0.014</t>
-  </si>
-  <si>
-    <t>0.289</t>
-  </si>
-  <si>
-    <t>0.706+/-0.007</t>
-  </si>
-  <si>
-    <t>0.687+/-0.018</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.696+/-0.019</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.899+/-0.003</t>
-  </si>
-  <si>
-    <t>0.843+/-0.0</t>
-  </si>
-  <si>
-    <t>0.751</t>
-  </si>
-  <si>
-    <t>0.878+/-0.005</t>
-  </si>
-  <si>
-    <t>0.824+/-0.011</t>
-  </si>
-  <si>
-    <t>0.273</t>
-  </si>
-  <si>
-    <t>0.927+/-0.003</t>
-  </si>
-  <si>
-    <t>0.872+/-0.012</t>
-  </si>
-  <si>
-    <t>0.398</t>
-  </si>
-  <si>
-    <t>10.458+/-0.153</t>
-  </si>
-  <si>
-    <t>0.794+/-0.003</t>
-  </si>
-  <si>
-    <t>0.782+/-0.0</t>
-  </si>
-  <si>
-    <t>0.747</t>
-  </si>
-  <si>
-    <t>0.804+/-0.004</t>
-  </si>
-  <si>
-    <t>0.791+/-0.019</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.777+/-0.002</t>
-  </si>
-  <si>
-    <t>0.767+/-0.016</t>
-  </si>
-  <si>
-    <t>0.401</t>
-  </si>
-  <si>
-    <t>2.155+/-0.033</t>
-  </si>
-  <si>
-    <t>0.898+/-0.001</t>
-  </si>
-  <si>
-    <t>0.88+/-0.0</t>
-  </si>
-  <si>
-    <t>0.817</t>
-  </si>
-  <si>
-    <t>0.931+/-0.003</t>
-  </si>
-  <si>
-    <t>0.913+/-0.011</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.86+/-0.002</t>
-  </si>
-  <si>
-    <t>0.841+/-0.009</t>
-  </si>
-  <si>
-    <t>0.226</t>
-  </si>
-  <si>
-    <t>8.899+/-0.058</t>
-  </si>
-  <si>
-    <t>0.745+/-0.003</t>
-  </si>
-  <si>
-    <t>0.721+/-0.0</t>
-  </si>
-  <si>
-    <t>0.678</t>
-  </si>
-  <si>
-    <t>0.749+/-0.004</t>
-  </si>
-  <si>
-    <t>0.725+/-0.015</t>
-  </si>
-  <si>
-    <t>0.243</t>
-  </si>
-  <si>
-    <t>0.737+/-0.005</t>
-  </si>
-  <si>
-    <t>0.714+/-0.023</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>0.825+/-0.02</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.878+/-0.002</t>
-  </si>
-  <si>
-    <t>0.759+/-0.0</t>
-  </si>
-  <si>
-    <t>0.681</t>
-  </si>
-  <si>
-    <t>0.895+/-0.003</t>
-  </si>
-  <si>
-    <t>0.778+/-0.018</t>
-  </si>
-  <si>
-    <t>0.408</t>
-  </si>
-  <si>
-    <t>0.856+/-0.005</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>7.379+/-0.306</t>
-  </si>
-  <si>
-    <t>0.706+/-0.004</t>
-  </si>
-  <si>
-    <t>0.693+/-0.0</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.728+/-0.004</t>
-  </si>
-  <si>
-    <t>0.715+/-0.017</t>
-  </si>
-  <si>
-    <t>0.379</t>
-  </si>
-  <si>
-    <t>0.656+/-0.008</t>
-  </si>
-  <si>
-    <t>0.641+/-0.02</t>
-  </si>
-  <si>
-    <t>0.388</t>
-  </si>
-  <si>
-    <t>1.416+/-0.021</t>
-  </si>
-  <si>
-    <t>0.813+/-0.003</t>
-  </si>
-  <si>
-    <t>0.778+/-0.0</t>
-  </si>
-  <si>
-    <t>0.705</t>
-  </si>
-  <si>
-    <t>0.904+/-0.004</t>
-  </si>
-  <si>
-    <t>0.862+/-0.01</t>
-  </si>
-  <si>
-    <t>0.436</t>
-  </si>
-  <si>
-    <t>0.7+/-0.006</t>
-  </si>
-  <si>
-    <t>0.662+/-0.02</t>
-  </si>
-  <si>
-    <t>0.217</t>
-  </si>
-  <si>
-    <t>5.819+/-0.036</t>
-  </si>
-  <si>
-    <t>0.68+/-0.003</t>
-  </si>
-  <si>
-    <t>0.631+/-0.0</t>
-  </si>
-  <si>
-    <t>0.598</t>
-  </si>
-  <si>
-    <t>0.663+/-0.003</t>
-  </si>
-  <si>
-    <t>0.618+/-0.016</t>
-  </si>
-  <si>
-    <t>0.362</t>
+    <t>0.638+/-0.006</t>
+  </si>
+  <si>
+    <t>0.624+/-0.019</t>
+  </si>
+  <si>
+    <t>1.543+/-0.09</t>
+  </si>
+  <si>
+    <t>0.785+/-0.003</t>
+  </si>
+  <si>
+    <t>0.738+/-0.0</t>
+  </si>
+  <si>
+    <t>0.666</t>
+  </si>
+  <si>
+    <t>0.81+/-0.017</t>
+  </si>
+  <si>
+    <t>0.672+/-0.005</t>
+  </si>
+  <si>
+    <t>0.622+/-0.022</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>6.149+/-0.23</t>
+  </si>
+  <si>
+    <t>0.674+/-0.003</t>
+  </si>
+  <si>
+    <t>0.616+/-0.0</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.656+/-0.004</t>
+  </si>
+  <si>
+    <t>0.604+/-0.012</t>
+  </si>
+  <si>
+    <t>0.375</t>
   </si>
   <si>
     <t>0.733+/-0.006</t>
   </si>
   <si>
-    <t>0.688+/-0.022</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.586+/-0.013</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.844+/-0.003</t>
-  </si>
-  <si>
-    <t>0.712+/-0.0</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.833+/-0.004</t>
-  </si>
-  <si>
-    <t>0.715+/-0.015</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.861+/-0.004</t>
-  </si>
-  <si>
-    <t>0.704+/-0.026</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>6.983+/-0.039</t>
-  </si>
-  <si>
-    <t>0.676+/-0.004</t>
-  </si>
-  <si>
-    <t>0.661+/-0.0</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.689+/-0.003</t>
-  </si>
-  <si>
-    <t>0.672+/-0.025</t>
-  </si>
-  <si>
-    <t>0.395</t>
-  </si>
-  <si>
-    <t>0.641+/-0.008</t>
-  </si>
-  <si>
-    <t>0.63+/-0.024</t>
-  </si>
-  <si>
-    <t>0.445</t>
-  </si>
-  <si>
-    <t>1.293+/-0.018</t>
-  </si>
-  <si>
-    <t>0.787+/-0.002</t>
-  </si>
-  <si>
-    <t>0.74+/-0.0</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.871+/-0.003</t>
-  </si>
-  <si>
-    <t>0.81+/-0.012</t>
-  </si>
-  <si>
-    <t>0.413</t>
-  </si>
-  <si>
-    <t>0.675+/-0.002</t>
-  </si>
-  <si>
-    <t>0.628+/-0.02</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>5.259+/-0.055</t>
-  </si>
-  <si>
-    <t>0.671+/-0.003</t>
-  </si>
-  <si>
-    <t>0.618+/-0.0</t>
-  </si>
-  <si>
-    <t>0.572</t>
-  </si>
-  <si>
-    <t>0.649+/-0.003</t>
-  </si>
-  <si>
-    <t>0.603+/-0.012</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.744+/-0.006</t>
-  </si>
-  <si>
-    <t>0.689+/-0.018</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.579+/-0.013</t>
+    <t>0.675+/-0.015</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.778+/-0.06</t>
   </si>
 </sst>
 </file>
@@ -1423,13 +1417,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
         <v>134</v>
@@ -1443,13 +1437,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
         <v>135</v>
@@ -1463,13 +1457,13 @@
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
         <v>136</v>
@@ -1483,10 +1477,10 @@
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>127</v>
@@ -1503,10 +1497,10 @@
         <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
         <v>128</v>
@@ -1523,10 +1517,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
         <v>129</v>
@@ -1543,10 +1537,10 @@
         <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
         <v>130</v>
@@ -1563,10 +1557,10 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
         <v>131</v>
@@ -1583,10 +1577,10 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>132</v>
@@ -1600,13 +1594,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
         <v>133</v>
@@ -1653,16 +1647,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
         <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1673,16 +1667,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
         <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1690,19 +1684,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
         <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1710,19 +1704,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1730,19 +1724,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1753,16 +1747,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1770,19 +1764,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1790,19 +1784,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1813,16 +1807,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1830,19 +1824,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
         <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_33_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_33_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="231">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -61,514 +61,655 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
+    <t>0.5</t>
   </si>
   <si>
     <t>0.001+/-0.0</t>
   </si>
   <si>
-    <t>0.884+/-0.002</t>
-  </si>
-  <si>
-    <t>0.811+/-0.0</t>
-  </si>
-  <si>
-    <t>0.718</t>
-  </si>
-  <si>
-    <t>0.868+/-0.004</t>
-  </si>
-  <si>
-    <t>0.802+/-0.015</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.905+/-0.003</t>
-  </si>
-  <si>
-    <t>0.828+/-0.011</t>
+    <t>0.882+/-0.003</t>
+  </si>
+  <si>
+    <t>0.736+/-0.0</t>
+  </si>
+  <si>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.869+/-0.003</t>
+  </si>
+  <si>
+    <t>0.379+/-0.023</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>0.9+/-0.006</t>
+  </si>
+  <si>
+    <t>0.487+/-0.041</t>
+  </si>
+  <si>
+    <t>0.088</t>
+  </si>
+  <si>
+    <t>0.955+/-0.002</t>
+  </si>
+  <si>
+    <t>0.718+/-0.023</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>12.654+/-0.207</t>
+  </si>
+  <si>
+    <t>0.772+/-0.004</t>
+  </si>
+  <si>
+    <t>0.717+/-0.0</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>0.785+/-0.005</t>
+  </si>
+  <si>
+    <t>0.344+/-0.034</t>
+  </si>
+  <si>
+    <t>0.511</t>
+  </si>
+  <si>
+    <t>0.748+/-0.008</t>
+  </si>
+  <si>
+    <t>0.447+/-0.052</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.854+/-0.003</t>
+  </si>
+  <si>
+    <t>0.68+/-0.037</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>2.652+/-0.031</t>
+  </si>
+  <si>
+    <t>0.87+/-0.002</t>
+  </si>
+  <si>
+    <t>0.78+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.912+/-0.004</t>
+  </si>
+  <si>
+    <t>0.433+/-0.044</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.819+/-0.004</t>
+  </si>
+  <si>
+    <t>0.306+/-0.042</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>0.94+/-0.001</t>
+  </si>
+  <si>
+    <t>0.706+/-0.029</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>10.594+/-0.159</t>
+  </si>
+  <si>
+    <t>0.717+/-0.007</t>
+  </si>
+  <si>
+    <t>0.664+/-0.0</t>
+  </si>
+  <si>
+    <t>0.716+/-0.011</t>
+  </si>
+  <si>
+    <t>0.318+/-0.022</t>
+  </si>
+  <si>
+    <t>0.512</t>
+  </si>
+  <si>
+    <t>0.721+/-0.017</t>
+  </si>
+  <si>
+    <t>0.58+/-0.048</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>0.794+/-0.004</t>
+  </si>
+  <si>
+    <t>0.701+/-0.024</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>1.251+/-0.052</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.001+/-0.001</t>
+  </si>
+  <si>
+    <t>0.9+/-0.005</t>
+  </si>
+  <si>
+    <t>0.769+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.882+/-0.007</t>
+  </si>
+  <si>
+    <t>0.318+/-0.028</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>0.924+/-0.004</t>
+  </si>
+  <si>
+    <t>0.47+/-0.049</t>
+  </si>
+  <si>
+    <t>0.082</t>
+  </si>
+  <si>
+    <t>0.966+/-0.002</t>
+  </si>
+  <si>
+    <t>0.731+/-0.011</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>13.739+/-0.123</t>
+  </si>
+  <si>
+    <t>0.791+/-0.003</t>
+  </si>
+  <si>
+    <t>0.75+/-0.0</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.798+/-0.005</t>
+  </si>
+  <si>
+    <t>0.288+/-0.021</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.778+/-0.008</t>
+  </si>
+  <si>
+    <t>0.451+/-0.038</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>0.874+/-0.002</t>
+  </si>
+  <si>
+    <t>0.695+/-0.018</t>
+  </si>
+  <si>
+    <t>0.684</t>
+  </si>
+  <si>
+    <t>2.923+/-0.056</t>
+  </si>
+  <si>
+    <t>0.898+/-0.002</t>
+  </si>
+  <si>
+    <t>0.825+/-0.0</t>
+  </si>
+  <si>
+    <t>0.848</t>
+  </si>
+  <si>
+    <t>0.933+/-0.003</t>
+  </si>
+  <si>
+    <t>0.388+/-0.066</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.857+/-0.003</t>
+  </si>
+  <si>
+    <t>0.288+/-0.052</t>
+  </si>
+  <si>
+    <t>0.104</t>
+  </si>
+  <si>
+    <t>0.957+/-0.001</t>
+  </si>
+  <si>
+    <t>0.711+/-0.017</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>11.599+/-0.199</t>
+  </si>
+  <si>
+    <t>0.732+/-0.005</t>
+  </si>
+  <si>
+    <t>0.712+/-0.0</t>
+  </si>
+  <si>
+    <t>0.745+/-0.01</t>
+  </si>
+  <si>
+    <t>0.275+/-0.015</t>
   </si>
   <si>
     <t>0.429</t>
   </si>
   <si>
-    <t>10.097+/-0.828</t>
-  </si>
-  <si>
-    <t>0.768+/-0.003</t>
-  </si>
-  <si>
-    <t>0.755+/-0.0</t>
-  </si>
-  <si>
-    <t>0.716</t>
-  </si>
-  <si>
-    <t>0.778+/-0.005</t>
-  </si>
-  <si>
-    <t>0.765+/-0.018</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.749+/-0.006</t>
-  </si>
-  <si>
-    <t>0.737+/-0.028</t>
-  </si>
-  <si>
-    <t>0.432</t>
-  </si>
-  <si>
-    <t>1.926+/-0.024</t>
-  </si>
-  <si>
-    <t>0.87+/-0.002</t>
-  </si>
-  <si>
-    <t>0.845+/-0.0</t>
-  </si>
-  <si>
-    <t>0.768</t>
-  </si>
-  <si>
-    <t>0.913+/-0.003</t>
-  </si>
-  <si>
-    <t>0.887+/-0.015</t>
-  </si>
-  <si>
-    <t>0.383</t>
-  </si>
-  <si>
-    <t>0.819+/-0.003</t>
-  </si>
-  <si>
-    <t>0.792+/-0.02</t>
-  </si>
-  <si>
-    <t>0.248</t>
-  </si>
-  <si>
-    <t>7.879+/-0.056</t>
-  </si>
-  <si>
-    <t>0.716+/-0.004</t>
-  </si>
-  <si>
-    <t>0.69+/-0.0</t>
-  </si>
-  <si>
-    <t>0.662</t>
-  </si>
-  <si>
-    <t>0.726+/-0.005</t>
-  </si>
-  <si>
-    <t>0.698+/-0.012</t>
-  </si>
-  <si>
-    <t>0.299</t>
-  </si>
-  <si>
-    <t>0.695+/-0.012</t>
-  </si>
-  <si>
-    <t>0.671+/-0.027</t>
-  </si>
-  <si>
-    <t>0.504</t>
-  </si>
-  <si>
-    <t>0.79+/-0.012</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.901+/-0.002</t>
-  </si>
-  <si>
-    <t>0.846+/-0.0</t>
-  </si>
-  <si>
-    <t>0.761</t>
-  </si>
-  <si>
-    <t>0.884+/-0.004</t>
-  </si>
-  <si>
-    <t>0.831+/-0.009</t>
-  </si>
-  <si>
-    <t>0.294</t>
-  </si>
-  <si>
-    <t>0.924+/-0.002</t>
-  </si>
-  <si>
-    <t>0.868+/-0.012</t>
-  </si>
-  <si>
-    <t>0.423</t>
-  </si>
-  <si>
-    <t>11.472+/-0.198</t>
-  </si>
-  <si>
-    <t>0.796+/-0.002</t>
-  </si>
-  <si>
-    <t>0.789+/-0.0</t>
-  </si>
-  <si>
-    <t>0.748</t>
-  </si>
-  <si>
-    <t>0.806+/-0.004</t>
-  </si>
-  <si>
-    <t>0.798+/-0.012</t>
-  </si>
-  <si>
-    <t>0.279</t>
-  </si>
-  <si>
-    <t>0.781+/-0.006</t>
-  </si>
-  <si>
-    <t>0.774+/-0.019</t>
-  </si>
-  <si>
-    <t>0.427</t>
-  </si>
-  <si>
-    <t>2.337+/-0.027</t>
-  </si>
-  <si>
-    <t>0.897+/-0.001</t>
-  </si>
-  <si>
-    <t>0.88+/-0.0</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.933+/-0.002</t>
-  </si>
-  <si>
-    <t>0.915+/-0.01</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.857+/-0.002</t>
-  </si>
-  <si>
-    <t>0.837+/-0.013</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>9.384+/-0.045</t>
-  </si>
-  <si>
-    <t>0.741+/-0.003</t>
-  </si>
-  <si>
-    <t>0.718+/-0.0</t>
+    <t>0.706+/-0.016</t>
+  </si>
+  <si>
+    <t>0.56+/-0.032</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.813+/-0.004</t>
+  </si>
+  <si>
+    <t>0.715+/-0.017</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>1.307+/-0.029</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.876+/-0.004</t>
+  </si>
+  <si>
+    <t>0.654+/-0.0</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.877+/-0.005</t>
+  </si>
+  <si>
+    <t>0.376+/-0.023</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.875+/-0.011</t>
+  </si>
+  <si>
+    <t>0.376+/-0.024</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.948+/-0.002</t>
+  </si>
+  <si>
+    <t>0.611+/-0.022</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>12.054+/-0.152</t>
+  </si>
+  <si>
+    <t>0.68+/-0.003</t>
+  </si>
+  <si>
+    <t>0.617+/-0.0</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.686+/-0.004</t>
+  </si>
+  <si>
+    <t>0.352+/-0.02</t>
+  </si>
+  <si>
+    <t>0.453</t>
+  </si>
+  <si>
+    <t>0.663+/-0.006</t>
+  </si>
+  <si>
+    <t>0.457+/-0.03</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>0.75+/-0.003</t>
+  </si>
+  <si>
+    <t>0.6+/-0.024</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>2.215+/-0.028</t>
+  </si>
+  <si>
+    <t>0.808+/-0.002</t>
+  </si>
+  <si>
+    <t>0.689+/-0.0</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.874+/-0.005</t>
+  </si>
+  <si>
+    <t>0.403+/-0.028</t>
+  </si>
+  <si>
+    <t>0.72+/-0.005</t>
+  </si>
+  <si>
+    <t>0.252+/-0.025</t>
+  </si>
+  <si>
+    <t>0.089</t>
+  </si>
+  <si>
+    <t>0.885+/-0.002</t>
+  </si>
+  <si>
+    <t>0.607+/-0.017</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>8.297+/-0.243</t>
+  </si>
+  <si>
+    <t>0.679+/-0.005</t>
+  </si>
+  <si>
+    <t>0.576+/-0.0</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.66+/-0.006</t>
+  </si>
+  <si>
+    <t>0.342+/-0.02</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.737+/-0.016</t>
+  </si>
+  <si>
+    <t>0.573+/-0.036</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>0.755+/-0.004</t>
+  </si>
+  <si>
+    <t>0.607+/-0.021</t>
+  </si>
+  <si>
+    <t>0.622</t>
+  </si>
+  <si>
+    <t>1.048+/-0.028</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.855+/-0.008</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.845+/-0.012</t>
+  </si>
+  <si>
+    <t>0.382+/-0.018</t>
+  </si>
+  <si>
+    <t>0.87+/-0.005</t>
+  </si>
+  <si>
+    <t>0.391+/-0.019</t>
+  </si>
+  <si>
+    <t>0.94+/-0.004</t>
+  </si>
+  <si>
+    <t>0.586+/-0.012</t>
+  </si>
+  <si>
+    <t>10.578+/-0.11</t>
+  </si>
+  <si>
+    <t>0.605+/-0.0</t>
   </si>
   <si>
     <t>0.697</t>
   </si>
   <si>
-    <t>0.76+/-0.003</t>
-  </si>
-  <si>
-    <t>0.735+/-0.014</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>0.706+/-0.01</t>
-  </si>
-  <si>
-    <t>0.681+/-0.024</t>
-  </si>
-  <si>
-    <t>0.487</t>
-  </si>
-  <si>
-    <t>0.971+/-0.018</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.867+/-0.003</t>
-  </si>
-  <si>
-    <t>0.749+/-0.0</t>
-  </si>
-  <si>
-    <t>0.673</t>
-  </si>
-  <si>
-    <t>0.874+/-0.005</t>
-  </si>
-  <si>
-    <t>0.755+/-0.016</t>
-  </si>
-  <si>
-    <t>0.406</t>
-  </si>
-  <si>
-    <t>0.858+/-0.004</t>
-  </si>
-  <si>
-    <t>0.736+/-0.014</t>
-  </si>
-  <si>
-    <t>0.394</t>
-  </si>
-  <si>
-    <t>8.636+/-0.302</t>
-  </si>
-  <si>
-    <t>0.686+/-0.003</t>
-  </si>
-  <si>
-    <t>0.675+/-0.0</t>
-  </si>
-  <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.699+/-0.003</t>
-  </si>
-  <si>
-    <t>0.686+/-0.014</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.653+/-0.005</t>
-  </si>
-  <si>
-    <t>0.647+/-0.023</t>
-  </si>
-  <si>
-    <t>1.921+/-0.027</t>
-  </si>
-  <si>
-    <t>0.809+/-0.001</t>
-  </si>
-  <si>
-    <t>0.769+/-0.0</t>
-  </si>
-  <si>
-    <t>0.881+/-0.005</t>
-  </si>
-  <si>
-    <t>0.837+/-0.023</t>
-  </si>
-  <si>
-    <t>0.425</t>
-  </si>
-  <si>
-    <t>0.713+/-0.004</t>
-  </si>
-  <si>
-    <t>0.67+/-0.02</t>
-  </si>
-  <si>
-    <t>0.264</t>
-  </si>
-  <si>
-    <t>6.765+/-0.614</t>
-  </si>
-  <si>
-    <t>0.687+/-0.003</t>
-  </si>
-  <si>
-    <t>0.638+/-0.0</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.673+/-0.004</t>
-  </si>
-  <si>
-    <t>0.627+/-0.015</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.728+/-0.004</t>
-  </si>
-  <si>
-    <t>0.681+/-0.021</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>0.734+/-0.052</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.853+/-0.004</t>
-  </si>
-  <si>
-    <t>0.717+/-0.0</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>0.846+/-0.006</t>
-  </si>
-  <si>
-    <t>0.722+/-0.01</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>0.862+/-0.003</t>
-  </si>
-  <si>
-    <t>0.703+/-0.017</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>8.139+/-0.159</t>
-  </si>
-  <si>
-    <t>0.675+/-0.003</t>
-  </si>
-  <si>
-    <t>0.66+/-0.0</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.689+/-0.004</t>
-  </si>
-  <si>
-    <t>0.673+/-0.017</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.638+/-0.006</t>
-  </si>
-  <si>
-    <t>0.624+/-0.019</t>
-  </si>
-  <si>
-    <t>1.543+/-0.09</t>
-  </si>
-  <si>
-    <t>0.785+/-0.003</t>
-  </si>
-  <si>
-    <t>0.738+/-0.0</t>
-  </si>
-  <si>
-    <t>0.666</t>
-  </si>
-  <si>
-    <t>0.81+/-0.017</t>
-  </si>
-  <si>
-    <t>0.672+/-0.005</t>
-  </si>
-  <si>
-    <t>0.622+/-0.022</t>
-  </si>
-  <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>6.149+/-0.23</t>
-  </si>
-  <si>
-    <t>0.674+/-0.003</t>
-  </si>
-  <si>
-    <t>0.616+/-0.0</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.656+/-0.004</t>
-  </si>
-  <si>
-    <t>0.604+/-0.012</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.733+/-0.006</t>
-  </si>
-  <si>
-    <t>0.675+/-0.015</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.778+/-0.06</t>
+    <t>0.693+/-0.003</t>
+  </si>
+  <si>
+    <t>0.37+/-0.011</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.644+/-0.009</t>
+  </si>
+  <si>
+    <t>0.401+/-0.022</t>
+  </si>
+  <si>
+    <t>0.751+/-0.003</t>
+  </si>
+  <si>
+    <t>0.577+/-0.01</t>
+  </si>
+  <si>
+    <t>0.582</t>
+  </si>
+  <si>
+    <t>2.029+/-0.033</t>
+  </si>
+  <si>
+    <t>0.79+/-0.002</t>
+  </si>
+  <si>
+    <t>0.662+/-0.0</t>
+  </si>
+  <si>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>0.873+/-0.007</t>
+  </si>
+  <si>
+    <t>0.411+/-0.029</t>
+  </si>
+  <si>
+    <t>0.539</t>
+  </si>
+  <si>
+    <t>0.678+/-0.006</t>
+  </si>
+  <si>
+    <t>0.226+/-0.027</t>
+  </si>
+  <si>
+    <t>0.072</t>
+  </si>
+  <si>
+    <t>0.871+/-0.001</t>
+  </si>
+  <si>
+    <t>0.585+/-0.015</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>8.018+/-0.102</t>
+  </si>
+  <si>
+    <t>0.674+/-0.005</t>
+  </si>
+  <si>
+    <t>0.558+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.654+/-0.006</t>
+  </si>
+  <si>
+    <t>0.363+/-0.007</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.742+/-0.015</t>
+  </si>
+  <si>
+    <t>0.577+/-0.028</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>0.748+/-0.004</t>
+  </si>
+  <si>
+    <t>0.589+/-0.009</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.995+/-0.025</t>
   </si>
 </sst>
 </file>
@@ -926,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,19 +1095,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -974,19 +1115,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -994,19 +1135,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1014,19 +1155,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1034,19 +1175,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1054,19 +1195,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1074,19 +1215,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1094,19 +1235,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1114,19 +1255,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1134,19 +1275,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
-        <v>60</v>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1184,19 +1385,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1204,19 +1405,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1224,19 +1425,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1244,19 +1445,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1264,19 +1465,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1284,19 +1485,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1304,19 +1505,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1324,19 +1525,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1344,19 +1545,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1364,19 +1565,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
         <v>91</v>
       </c>
-      <c r="F11" t="s">
-        <v>101</v>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1647,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1414,19 +1675,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1434,19 +1695,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1454,19 +1715,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1474,19 +1735,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1494,19 +1755,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1514,19 +1775,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1534,19 +1795,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1554,19 +1815,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1574,19 +1835,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1594,19 +1855,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>143</v>
+      </c>
+      <c r="D13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1616,7 +1937,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1644,19 +1965,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1664,19 +1985,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1684,19 +2005,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1704,19 +2025,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1724,19 +2045,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1744,19 +2065,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1764,19 +2085,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1784,19 +2105,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1804,19 +2125,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1824,19 +2145,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>156</v>
       </c>
-      <c r="D11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11" t="s">
-        <v>183</v>
+      <c r="D13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
